--- a/data/trans_dic/P32E$eventos_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Provincia-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1030,7 +1030,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$eventos_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Provincia-trans_dic.xlsx
@@ -682,11 +682,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2420499775916455</v>
+        <v>0.2533796681569646</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.3361686532671669</v>
+        <v>0.3408538889976511</v>
       </c>
     </row>
     <row r="13">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.0493847298762293</v>
+        <v>0.04938472987622931</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.1408651963077205</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02417029877576028</v>
+        <v>0.01862131987769922</v>
       </c>
     </row>
     <row r="24">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1577163933121601</v>
+        <v>0.1489475894662299</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4412533661202812</v>
+        <v>0.4192666780206805</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1889736471241115</v>
+        <v>0.1900334718098679</v>
       </c>
     </row>
     <row r="25">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.07323246674610855</v>
+        <v>0.07323246674610853</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.02073700563696568</v>
@@ -918,10 +918,10 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.3093994980433091</v>
+        <v>0.3717876007188135</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.09875163350979217</v>
+        <v>0.11588592345272</v>
       </c>
     </row>
     <row r="28">
@@ -953,13 +953,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.005588732106044193</v>
+        <v>0.005553815850899205</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02642293420346502</v>
+        <v>0.02354418414981079</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01477083633735992</v>
+        <v>0.01580313598720652</v>
       </c>
     </row>
     <row r="30">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04871288218933682</v>
+        <v>0.05432113028528174</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1823764713317461</v>
+        <v>0.1883524253602137</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.07580308796015882</v>
+        <v>0.0745186549424373</v>
       </c>
     </row>
     <row r="31">
@@ -1257,11 +1257,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3930</v>
+        <v>4114</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5775</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="16">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1536</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="31">
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6926</v>
+        <v>6541</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>8669</v>
+        <v>8237</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>12011</v>
+        <v>12079</v>
       </c>
     </row>
     <row r="32">
@@ -1578,10 +1578,10 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>5716</v>
+        <v>6868</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6442</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="36">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1696</v>
+        <v>1511</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3333</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="39">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>7866</v>
+        <v>8772</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>11706</v>
+        <v>12090</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>17106</v>
+        <v>16816</v>
       </c>
     </row>
     <row r="40">
